--- a/firmware/Atmel Studio Project/Timer setup.xlsx
+++ b/firmware/Atmel Studio Project/Timer setup.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SinuX\Desktop\Attiny13_IR_RGB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SinuX\Desktop\Новая папка\Attiny13_IR_RGB_Spectrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -180,7 +180,190 @@
     <cellStyle name="Контрольная ячейка" xfId="1" builtinId="23"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -236,7 +419,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,7 +454,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,19 +639,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -479,7 +664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -490,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -501,10 +686,10 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -517,7 +702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -530,7 +715,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -543,7 +728,7 @@
         <v>15625</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -556,10 +741,10 @@
         <v>15.625</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -571,8 +756,12 @@
         <f>13.5*C8</f>
         <v>210.9375</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f>IF(OR(B10 &gt;= 255, C10 &gt;= 255), "Превышено допустимое значение счетчика (&lt; 255)", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -584,8 +773,12 @@
         <f>11.25*C8</f>
         <v>175.78125</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:D15" si="0">IF(OR(B11 &gt;= 255, C11 &gt;= 255), "Превышено допустимое значение счетчика (&lt; 255)", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -597,8 +790,12 @@
         <f>9*C8</f>
         <v>140.625</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -610,8 +807,12 @@
         <f>4.5*C8</f>
         <v>70.3125</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -623,8 +824,12 @@
         <f>2.25*C8</f>
         <v>35.15625</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -636,8 +841,12 @@
         <f>1.12*C8</f>
         <v>17.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -645,12 +854,12 @@
         <v>11</v>
       </c>
       <c r="B17" s="6">
-        <f>ROUNDUP((B10+B11+B14)/3,0)</f>
-        <v>169</v>
+        <f>ROUNDUP((B13+B14)/2,0)</f>
+        <v>64</v>
       </c>
       <c r="C17" s="6">
-        <f>ROUNDUP((C10+C11+C14)/3,0)</f>
-        <v>141</v>
+        <f>ROUNDUP((C13+C14)/2,0)</f>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -668,6 +877,16 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <conditionalFormatting sqref="B10:B15">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>254</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C15">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>254</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
